--- a/media/images/excel/2023_01_31_Order_UPA_Routine_MFS_-_Raouf_-_REVISED.xlsx
+++ b/media/images/excel/2023_01_31_Order_UPA_Routine_MFS_-_Raouf_-_REVISED.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$17</definedName>
@@ -698,10 +696,18 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="47.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="5" max="5" width="29.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -1103,28 +1109,4 @@
   <autoFilter ref="A1:F17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>